--- a/Results/Calculation/plsa-partial-ner-money.xlsx
+++ b/Results/Calculation/plsa-partial-ner-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="G2">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="H2">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I2">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,16 +464,16 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>17</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="G3">
         <v>0.92</v>
@@ -493,22 +493,22 @@
         <v>132</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>22</v>
       </c>
       <c r="F4">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G4">
         <v>0.86</v>
       </c>
       <c r="H4">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="I4">
         <v>0.93</v>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>319</v>
@@ -528,13 +528,13 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>0.86</v>
       </c>
       <c r="G5">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="H5">
         <v>0.78</v>
